--- a/ipynb/corporate-finance/datasets/corporate-finance-data.xlsx
+++ b/ipynb/corporate-finance/datasets/corporate-finance-data.xlsx
@@ -267,12 +267,12 @@
     <t>토마토시스템</t>
   </si>
   <si>
+    <t>키움제8호스팩</t>
+  </si>
+  <si>
     <t>트루엔</t>
   </si>
   <si>
-    <t>키움제8호스팩</t>
-  </si>
-  <si>
     <t>씨유박스</t>
   </si>
   <si>
@@ -300,12 +300,12 @@
     <t>하이제8호스팩</t>
   </si>
   <si>
+    <t>KB제25호스팩</t>
+  </si>
+  <si>
     <t>엔에이치스팩29호</t>
   </si>
   <si>
-    <t>KB제25호스팩</t>
-  </si>
-  <si>
     <t>하나29호스팩</t>
   </si>
   <si>
@@ -744,15 +744,15 @@
     <t>35.43 : 1</t>
   </si>
   <si>
+    <t>125.4 : 1</t>
+  </si>
+  <si>
+    <t>117.06 : 1</t>
+  </si>
+  <si>
     <t>18.31 : 1</t>
   </si>
   <si>
-    <t>117.06 : 1</t>
-  </si>
-  <si>
-    <t>125.4 : 1</t>
-  </si>
-  <si>
     <t>69.3655 : 1</t>
   </si>
   <si>
@@ -777,10 +777,10 @@
     <t>1318.3 : 1</t>
   </si>
   <si>
+    <t>1568 : 1</t>
+  </si>
+  <si>
     <t>1917.16 : 1</t>
-  </si>
-  <si>
-    <t>1568 : 1</t>
   </si>
   <si>
     <t>인수기관</t>
@@ -2198,10 +2198,10 @@
         <v>1160</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F20">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="G20" t="s">
         <v>127</v>
@@ -2216,7 +2216,7 @@
         <v>127</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s">
         <v>127</v>
@@ -2225,7 +2225,7 @@
         <v>5000</v>
       </c>
       <c r="N20">
-        <v>17.24</v>
+        <v>41.38</v>
       </c>
       <c r="O20" t="s">
         <v>29</v>
@@ -2251,7 +2251,7 @@
         <v>1160</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>480</v>
@@ -2304,10 +2304,10 @@
         <v>1160</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
         <v>127</v>
@@ -2322,7 +2322,7 @@
         <v>127</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s">
         <v>127</v>
@@ -2331,7 +2331,7 @@
         <v>5000</v>
       </c>
       <c r="N22">
-        <v>41.38</v>
+        <v>17.24</v>
       </c>
       <c r="O22" t="s">
         <v>29</v>
@@ -2728,10 +2728,10 @@
         <v>1189</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F30">
-        <v>419</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
         <v>127</v>
@@ -2746,7 +2746,7 @@
         <v>127</v>
       </c>
       <c r="K30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s">
         <v>127</v>
@@ -2755,7 +2755,7 @@
         <v>5000</v>
       </c>
       <c r="N30">
-        <v>35.24</v>
+        <v>16.82</v>
       </c>
       <c r="O30" t="s">
         <v>32</v>
@@ -2781,10 +2781,10 @@
         <v>1189</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F31">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
         <v>127</v>
@@ -2799,7 +2799,7 @@
         <v>127</v>
       </c>
       <c r="K31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s">
         <v>127</v>
@@ -2808,7 +2808,7 @@
         <v>5000</v>
       </c>
       <c r="N31">
-        <v>31.12</v>
+        <v>16.82</v>
       </c>
       <c r="O31" t="s">
         <v>32</v>
@@ -2834,10 +2834,10 @@
         <v>1189</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F32">
-        <v>200</v>
+        <v>419</v>
       </c>
       <c r="G32" t="s">
         <v>127</v>
@@ -2852,7 +2852,7 @@
         <v>127</v>
       </c>
       <c r="K32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L32" t="s">
         <v>127</v>
@@ -2861,7 +2861,7 @@
         <v>5000</v>
       </c>
       <c r="N32">
-        <v>16.82</v>
+        <v>35.24</v>
       </c>
       <c r="O32" t="s">
         <v>32</v>
@@ -2887,10 +2887,10 @@
         <v>1189</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F33">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="G33" t="s">
         <v>127</v>
@@ -2905,7 +2905,7 @@
         <v>127</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s">
         <v>127</v>
@@ -2914,7 +2914,7 @@
         <v>5000</v>
       </c>
       <c r="N33">
-        <v>16.82</v>
+        <v>31.12</v>
       </c>
       <c r="O33" t="s">
         <v>32</v>
@@ -3043,13 +3043,13 @@
         <v>106</v>
       </c>
       <c r="D36">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F36">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G36" t="s">
         <v>127</v>
@@ -3070,7 +3070,7 @@
         <v>127</v>
       </c>
       <c r="M36">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="N36">
         <v>100</v>
@@ -3082,7 +3082,7 @@
         <v>178</v>
       </c>
       <c r="Q36">
-        <v>1875000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3096,13 +3096,13 @@
         <v>106</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G37" t="s">
         <v>127</v>
@@ -3123,7 +3123,7 @@
         <v>127</v>
       </c>
       <c r="M37">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="N37">
         <v>100</v>
@@ -3135,7 +3135,7 @@
         <v>178</v>
       </c>
       <c r="Q37">
-        <v>3750000</v>
+        <v>1875000</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3152,10 +3152,10 @@
         <v>225</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F38">
-        <v>180</v>
+        <v>22.5</v>
       </c>
       <c r="G38" t="s">
         <v>127</v>
@@ -3170,7 +3170,7 @@
         <v>127</v>
       </c>
       <c r="K38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L38" t="s">
         <v>127</v>
@@ -3179,7 +3179,7 @@
         <v>15000</v>
       </c>
       <c r="N38">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="O38" t="s">
         <v>150</v>
@@ -3196,19 +3196,19 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>106</v>
       </c>
       <c r="D39">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F39">
-        <v>196</v>
+        <v>22.5</v>
       </c>
       <c r="G39" t="s">
         <v>127</v>
@@ -3223,25 +3223,25 @@
         <v>127</v>
       </c>
       <c r="K39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s">
         <v>127</v>
       </c>
       <c r="M39">
-        <v>9800</v>
+        <v>15000</v>
       </c>
       <c r="N39">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="Q39">
-        <v>1494420</v>
+        <v>3150000</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3258,10 +3258,10 @@
         <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F40">
-        <v>22.5</v>
+        <v>180</v>
       </c>
       <c r="G40" t="s">
         <v>127</v>
@@ -3276,7 +3276,7 @@
         <v>127</v>
       </c>
       <c r="K40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s">
         <v>127</v>
@@ -3285,7 +3285,7 @@
         <v>15000</v>
       </c>
       <c r="N40">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="O40" t="s">
         <v>150</v>
@@ -3302,19 +3302,19 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
         <v>106</v>
       </c>
       <c r="D41">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>22.5</v>
+        <v>196</v>
       </c>
       <c r="G41" t="s">
         <v>127</v>
@@ -3329,25 +3329,25 @@
         <v>127</v>
       </c>
       <c r="K41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L41" t="s">
         <v>127</v>
       </c>
       <c r="M41">
-        <v>15000</v>
+        <v>9800</v>
       </c>
       <c r="N41">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="Q41">
-        <v>3150000</v>
+        <v>1494420</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3470,10 +3470,10 @@
         <v>290</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F44">
-        <v>275.5</v>
+        <v>14.5</v>
       </c>
       <c r="G44" t="s">
         <v>127</v>
@@ -3488,7 +3488,7 @@
         <v>127</v>
       </c>
       <c r="K44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L44" t="s">
         <v>127</v>
@@ -3497,7 +3497,7 @@
         <v>20000</v>
       </c>
       <c r="N44">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="O44" t="s">
         <v>153</v>
@@ -3523,10 +3523,10 @@
         <v>290</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F45">
-        <v>14.5</v>
+        <v>275.5</v>
       </c>
       <c r="G45" t="s">
         <v>127</v>
@@ -3541,7 +3541,7 @@
         <v>127</v>
       </c>
       <c r="K45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s">
         <v>127</v>
@@ -3550,7 +3550,7 @@
         <v>20000</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="O45" t="s">
         <v>153</v>
@@ -3576,10 +3576,10 @@
         <v>320</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F46">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="G46" t="s">
         <v>127</v>
@@ -3594,7 +3594,7 @@
         <v>127</v>
       </c>
       <c r="K46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s">
         <v>127</v>
@@ -3603,7 +3603,7 @@
         <v>16000</v>
       </c>
       <c r="N46">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="O46" t="s">
         <v>154</v>
@@ -3629,10 +3629,10 @@
         <v>320</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F47">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>127</v>
@@ -3647,7 +3647,7 @@
         <v>127</v>
       </c>
       <c r="K47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L47" t="s">
         <v>127</v>
@@ -3656,7 +3656,7 @@
         <v>16000</v>
       </c>
       <c r="N47">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="O47" t="s">
         <v>154</v>
@@ -3891,13 +3891,13 @@
         <v>106</v>
       </c>
       <c r="D52">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F52">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
         <v>127</v>
@@ -3930,7 +3930,7 @@
         <v>47</v>
       </c>
       <c r="Q52">
-        <v>9562500</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3944,13 +3944,13 @@
         <v>106</v>
       </c>
       <c r="D53">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F53">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="G53" t="s">
         <v>127</v>
@@ -3983,7 +3983,7 @@
         <v>47</v>
       </c>
       <c r="Q53">
-        <v>3000000</v>
+        <v>9562500</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4371,10 +4371,10 @@
         <v>956.25</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F61">
-        <v>143.4375</v>
+        <v>812.8125</v>
       </c>
       <c r="G61" t="s">
         <v>127</v>
@@ -4389,7 +4389,7 @@
         <v>127</v>
       </c>
       <c r="K61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s">
         <v>127</v>
@@ -4398,7 +4398,7 @@
         <v>34000</v>
       </c>
       <c r="N61">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="O61" t="s">
         <v>164</v>
@@ -4424,10 +4424,10 @@
         <v>956.25</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F62">
-        <v>812.8125</v>
+        <v>143.4375</v>
       </c>
       <c r="G62" t="s">
         <v>127</v>
@@ -4442,7 +4442,7 @@
         <v>127</v>
       </c>
       <c r="K62" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s">
         <v>127</v>
@@ -4451,7 +4451,7 @@
         <v>34000</v>
       </c>
       <c r="N62">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="O62" t="s">
         <v>164</v>
@@ -6199,7 +6199,7 @@
         <v>149</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>115</v>
@@ -6261,7 +6261,7 @@
         <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
         <v>111</v>
@@ -6819,22 +6819,22 @@
         <v>157</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
         <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37">
-        <v>25500000</v>
+        <v>8500000</v>
       </c>
       <c r="G37">
-        <v>12750000</v>
+        <v>4250000</v>
       </c>
       <c r="H37" t="s">
         <v>127</v>
@@ -6881,7 +6881,7 @@
         <v>157</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
         <v>122</v>
@@ -6943,22 +6943,22 @@
         <v>157</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39">
-        <v>8500000</v>
+        <v>25500000</v>
       </c>
       <c r="G39">
-        <v>4250000</v>
+        <v>12750000</v>
       </c>
       <c r="H39" t="s">
         <v>127</v>
@@ -7563,37 +7563,37 @@
         <v>165</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
         <v>184</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49">
-        <v>27000000</v>
+        <v>17550000</v>
       </c>
       <c r="G49">
-        <v>3000000</v>
+        <v>3900000</v>
       </c>
       <c r="H49" t="s">
         <v>127</v>
       </c>
       <c r="I49">
-        <v>7000</v>
+        <v>2900</v>
       </c>
       <c r="J49">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="K49" t="s">
         <v>127</v>
       </c>
       <c r="L49">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M49" t="s">
         <v>127</v>
@@ -7625,37 +7625,37 @@
         <v>165</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
         <v>184</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50">
-        <v>17550000</v>
+        <v>27000000</v>
       </c>
       <c r="G50">
-        <v>3900000</v>
+        <v>3000000</v>
       </c>
       <c r="H50" t="s">
         <v>127</v>
       </c>
       <c r="I50">
-        <v>2900</v>
+        <v>7000</v>
       </c>
       <c r="J50">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="K50" t="s">
         <v>127</v>
       </c>
       <c r="L50">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M50" t="s">
         <v>127</v>
@@ -7776,10 +7776,10 @@
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>116</v>
@@ -7788,19 +7788,19 @@
         <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="I3">
-        <v>4000000</v>
+        <v>2600000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -7814,10 +7814,10 @@
         <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>116</v>
@@ -7826,19 +7826,19 @@
         <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="I4">
-        <v>2600000</v>
+        <v>4000000</v>
       </c>
       <c r="J4">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>122</v>
@@ -8045,7 +8045,7 @@
         <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
         <v>118</v>
@@ -8270,37 +8270,37 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>9100</v>
+        <v>39072.407</v>
       </c>
       <c r="I16">
-        <v>3500000</v>
+        <v>3552037</v>
       </c>
       <c r="J16">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8308,37 +8308,37 @@
         <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H17">
-        <v>39072.407</v>
+        <v>9100</v>
       </c>
       <c r="I17">
-        <v>3552037</v>
+        <v>3500000</v>
       </c>
       <c r="J17">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8384,37 +8384,37 @@
         <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>9300</v>
+        <v>9067.5</v>
       </c>
       <c r="I19">
-        <v>4650000</v>
+        <v>6500000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8422,10 +8422,10 @@
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
         <v>111</v>
@@ -8434,19 +8434,19 @@
         <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H20">
-        <v>23552.0397</v>
+        <v>9300</v>
       </c>
       <c r="I20">
-        <v>4618047</v>
+        <v>4650000</v>
       </c>
       <c r="J20">
-        <v>5100</v>
+        <v>2000</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -8460,10 +8460,10 @@
         <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
         <v>111</v>
@@ -8472,19 +8472,19 @@
         <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="I21">
-        <v>2500000</v>
+        <v>7000000</v>
       </c>
       <c r="J21">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -8498,10 +8498,10 @@
         <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
         <v>111</v>
@@ -8510,19 +8510,19 @@
         <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="I22">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="J22">
-        <v>9800</v>
+        <v>19500</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -8536,10 +8536,10 @@
         <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
         <v>111</v>
@@ -8548,19 +8548,19 @@
         <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H23">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="I23">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="J23">
-        <v>19500</v>
+        <v>9800</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -8574,10 +8574,10 @@
         <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
         <v>111</v>
@@ -8586,19 +8586,19 @@
         <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>70000</v>
+        <v>30000</v>
       </c>
       <c r="I24">
-        <v>7000000</v>
+        <v>2500000</v>
       </c>
       <c r="J24">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -8612,10 +8612,10 @@
         <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
         <v>111</v>
@@ -8624,19 +8624,19 @@
         <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>9000</v>
+        <v>23552.0397</v>
       </c>
       <c r="I25">
-        <v>4500000</v>
+        <v>4618047</v>
       </c>
       <c r="J25">
-        <v>2000</v>
+        <v>5100</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -8650,37 +8650,37 @@
         <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>9067.5</v>
+        <v>9000</v>
       </c>
       <c r="I26">
-        <v>6500000</v>
+        <v>4500000</v>
       </c>
       <c r="J26">
-        <v>3100</v>
+        <v>2000</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -8764,37 +8764,37 @@
         <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H29">
-        <v>41900</v>
+        <v>95385.094</v>
       </c>
       <c r="I29">
-        <v>23780000</v>
+        <v>2218258</v>
       </c>
       <c r="J29">
-        <v>5000</v>
+        <v>43000</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>35.24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -8840,37 +8840,37 @@
         <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>258</v>
       </c>
       <c r="F31" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H31">
-        <v>95385.094</v>
+        <v>41900</v>
       </c>
       <c r="I31">
-        <v>2218258</v>
+        <v>23780000</v>
       </c>
       <c r="J31">
-        <v>43000</v>
+        <v>5000</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>35.24</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -9030,37 +9030,37 @@
         <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
         <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H36">
-        <v>5844</v>
+        <v>18000</v>
       </c>
       <c r="I36">
-        <v>1948000</v>
+        <v>1500000</v>
       </c>
       <c r="J36">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -9068,37 +9068,37 @@
         <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
         <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>261</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H37">
-        <v>18000</v>
+        <v>21600</v>
       </c>
       <c r="I37">
-        <v>1500000</v>
+        <v>3600000</v>
       </c>
       <c r="J37">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -9106,10 +9106,10 @@
         <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
         <v>112</v>
@@ -9118,19 +9118,19 @@
         <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H38">
-        <v>21600</v>
+        <v>5844</v>
       </c>
       <c r="I38">
-        <v>3600000</v>
+        <v>1948000</v>
       </c>
       <c r="J38">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -9144,10 +9144,10 @@
         <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
         <v>117</v>
@@ -9156,16 +9156,16 @@
         <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="I39">
-        <v>8500000</v>
+        <v>4500000</v>
       </c>
       <c r="J39">
         <v>2000</v>
@@ -9182,10 +9182,10 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
         <v>117</v>
@@ -9194,16 +9194,16 @@
         <v>117</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H40">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="I40">
-        <v>4500000</v>
+        <v>8500000</v>
       </c>
       <c r="J40">
         <v>2000</v>
@@ -9375,7 +9375,7 @@
         <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
         <v>115</v>
@@ -9486,10 +9486,10 @@
         <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
         <v>121</v>
@@ -9498,19 +9498,19 @@
         <v>121</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H48">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="I48">
-        <v>1650000</v>
+        <v>900000</v>
       </c>
       <c r="J48">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -9562,10 +9562,10 @@
         <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
         <v>121</v>
@@ -9574,19 +9574,19 @@
         <v>121</v>
       </c>
       <c r="F50" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" t="s">
         <v>52</v>
       </c>
-      <c r="G50" t="s">
-        <v>53</v>
-      </c>
       <c r="H50">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="I50">
-        <v>900000</v>
+        <v>1650000</v>
       </c>
       <c r="J50">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -9600,37 +9600,37 @@
         <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>259</v>
+        <v>121</v>
       </c>
       <c r="F51" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="I51">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="J51">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -9638,37 +9638,37 @@
         <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="F52" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52" t="s">
         <v>34</v>
       </c>
-      <c r="G52" t="s">
-        <v>35</v>
-      </c>
       <c r="H52">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="I52">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="J52">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -9790,37 +9790,37 @@
         <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="F56" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H56">
-        <v>27000</v>
+        <v>48000</v>
       </c>
       <c r="I56">
-        <v>3000000</v>
+        <v>23200000</v>
       </c>
       <c r="J56">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>100</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -9828,10 +9828,10 @@
         <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
         <v>113</v>
@@ -9840,19 +9840,19 @@
         <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="H57">
-        <v>52000</v>
+        <v>27000</v>
       </c>
       <c r="I57">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="J57">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -9866,37 +9866,37 @@
         <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H58">
-        <v>37000</v>
+        <v>52000</v>
       </c>
       <c r="I58">
-        <v>23780000</v>
+        <v>4000000</v>
       </c>
       <c r="J58">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>31.12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -9904,37 +9904,37 @@
         <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="F59" t="s">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>15500</v>
+        <v>37000</v>
       </c>
       <c r="I59">
-        <v>1000000</v>
+        <v>23780000</v>
       </c>
       <c r="J59">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>100</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -9942,37 +9942,37 @@
         <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H60">
-        <v>48000</v>
+        <v>13967.208</v>
       </c>
       <c r="I60">
-        <v>23200000</v>
+        <v>775956</v>
       </c>
       <c r="J60">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>41.38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -9980,10 +9980,10 @@
         <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
         <v>113</v>
@@ -9992,19 +9992,19 @@
         <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H61">
-        <v>13967.208</v>
+        <v>15500</v>
       </c>
       <c r="I61">
-        <v>775956</v>
+        <v>1000000</v>
       </c>
       <c r="J61">
-        <v>18000</v>
+        <v>15500</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -10018,37 +10018,37 @@
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="F62" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H62">
-        <v>50400</v>
+        <v>48000</v>
       </c>
       <c r="I62">
-        <v>1800000</v>
+        <v>23200000</v>
       </c>
       <c r="J62">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>100</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -10056,37 +10056,37 @@
         <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="E63" t="s">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H63">
-        <v>48000</v>
+        <v>50400</v>
       </c>
       <c r="I63">
-        <v>23200000</v>
+        <v>1800000</v>
       </c>
       <c r="J63">
-        <v>5000</v>
+        <v>28000</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>41.38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:12">
